--- a/MS_SPD.xlsx
+++ b/MS_SPD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misaka Yukino\Documents\majorxma\Model_Simulation\module-simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misaka Yukino\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C619F0B4-2C5F-45FD-BBAF-B9B065F4ACB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C8A69-048D-4827-958F-7D54373EC537}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="7500" windowHeight="9532" xr2:uid="{78593CF0-F65A-405B-A36E-A39CA76E3096}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{78593CF0-F65A-405B-A36E-A39CA76E3096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Document subject</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,55 @@
   </si>
   <si>
     <t>1.2:Input and output valuables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Problem statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Description 
+of real system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 Objects, Structure, Properties, Dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of use cases, scenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Control of the number of the number of the windows
+ and the number of the seats. 
+2.Generating the arrival rate of customers
+3.After decide the number of windows and seats,  consider the length of the queue and the waiting time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Nutzung 
+desModells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.Application purpose:e.g.
+Plan 
+Training
+Analysis
+Decesion supporting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For the purpose of plan and analyse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For the dining halls in someplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 Application area:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,47 +107,32 @@
 +     Service time at the window
 +     Eating time of the customer
 +     The priority of customers
++     The popularity of the window
 Outputvariable/Parameter:
 +     Queuing length for the window
 +     Queuing length for the seats
 +     Average waiting time for the window
 +     Average waiting time for the seats
-+     The popularity of the window
 +     The best number of the window
 +     The best number of the seats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Problem statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Description 
-of real system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 Objects, Structure, Properties, Dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description of use cases, scenarios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Control of the number of the number of the windows
- and the number of the seats. 
-2.Generating the arrival rate of customers
-3.After decide the number of windows and seats,  consider the length of the queue and the waiting time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Nutzung 
-desModells</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.Application purpose:e.g.</t>
+    <t>4.Rahmenbe
+dingungen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1Project-specific conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 Delivery condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration: 4 hours
+Manpower3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,10 +184,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29246F1-C6CC-448B-B5DD-5F158D460F6C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -497,58 +531,85 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="48.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="213.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="134.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
